--- a/multiRFE.xlsx
+++ b/multiRFE.xlsx
@@ -486,7 +486,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -499,7 +499,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -512,7 +512,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -551,11 +551,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bwd packets/s</t>
+          <t xml:space="preserve"> bwd packet length mean</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -564,11 +564,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> destination port</t>
+          <t xml:space="preserve"> bwd packets/s</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -577,11 +577,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow duration</t>
+          <t xml:space="preserve"> destination port</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -590,11 +590,11 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow iat max</t>
+          <t xml:space="preserve"> flow duration</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -603,11 +603,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow iat mean</t>
+          <t xml:space="preserve"> flow iat max</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -616,11 +616,11 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow iat min</t>
+          <t xml:space="preserve"> flow iat mean</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -629,11 +629,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow iat std</t>
+          <t xml:space="preserve"> flow iat min</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -642,11 +642,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow packets/s</t>
+          <t xml:space="preserve"> flow iat std</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -655,11 +655,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd header length</t>
+          <t xml:space="preserve"> flow packets/s</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -668,11 +668,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd header length.1</t>
+          <t xml:space="preserve"> fwd header length</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -681,11 +681,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd iat max</t>
+          <t xml:space="preserve"> fwd header length.1</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -694,11 +694,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd iat mean</t>
+          <t xml:space="preserve"> fwd iat max</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -707,11 +707,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd iat min</t>
+          <t xml:space="preserve"> fwd iat mean</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -720,11 +720,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd iat std</t>
+          <t xml:space="preserve"> fwd iat min</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -733,11 +733,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd packet length max</t>
+          <t xml:space="preserve"> fwd iat std</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -746,11 +746,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> idle max</t>
+          <t xml:space="preserve"> fwd packet length max</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -759,11 +759,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> idle std</t>
+          <t xml:space="preserve"> idle max</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -772,11 +772,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> init_win_bytes_backward</t>
+          <t xml:space="preserve"> idle std</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -789,7 +789,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> min_seg_size_forward</t>
+          <t xml:space="preserve"> init_win_bytes_backward</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -798,11 +798,11 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> source port</t>
+          <t xml:space="preserve"> protocol</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -811,11 +811,11 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> subflow bwd packets</t>
+          <t xml:space="preserve"> source port</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -824,11 +824,11 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> total backward packets</t>
+          <t xml:space="preserve"> subflow bwd packets</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -837,11 +837,11 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> total fwd packets</t>
+          <t xml:space="preserve"> total backward packets</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -850,11 +850,11 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>active mean</t>
+          <t xml:space="preserve"> total fwd packets</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -863,11 +863,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>bwd iat total</t>
+          <t>active mean</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -876,11 +876,11 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>flow bytes/s</t>
+          <t>bwd iat total</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -889,7 +889,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>

--- a/multiRFE.xlsx
+++ b/multiRFE.xlsx
@@ -486,7 +486,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -499,7 +499,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -512,7 +512,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -551,11 +551,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bwd packet length mean</t>
+          <t xml:space="preserve"> bwd packets/s</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -564,11 +564,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bwd packets/s</t>
+          <t xml:space="preserve"> destination port</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -577,11 +577,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> destination port</t>
+          <t xml:space="preserve"> flow duration</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -590,11 +590,11 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow duration</t>
+          <t xml:space="preserve"> flow iat max</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -603,11 +603,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow iat max</t>
+          <t xml:space="preserve"> flow iat mean</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -616,11 +616,11 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow iat mean</t>
+          <t xml:space="preserve"> flow iat min</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -629,11 +629,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow iat min</t>
+          <t xml:space="preserve"> flow iat std</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -642,11 +642,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow iat std</t>
+          <t xml:space="preserve"> flow packets/s</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -655,11 +655,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow packets/s</t>
+          <t xml:space="preserve"> fwd header length</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -668,11 +668,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd header length</t>
+          <t xml:space="preserve"> fwd header length.1</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -681,11 +681,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd header length.1</t>
+          <t xml:space="preserve"> fwd iat max</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -694,11 +694,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd iat max</t>
+          <t xml:space="preserve"> fwd iat mean</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -707,11 +707,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd iat mean</t>
+          <t xml:space="preserve"> fwd iat min</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -720,11 +720,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd iat min</t>
+          <t xml:space="preserve"> fwd iat std</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -733,11 +733,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd iat std</t>
+          <t xml:space="preserve"> idle max</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -746,11 +746,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd packet length max</t>
+          <t xml:space="preserve"> idle std</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -759,11 +759,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> idle max</t>
+          <t xml:space="preserve"> init_win_bytes_backward</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -772,11 +772,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> idle std</t>
+          <t xml:space="preserve"> min_seg_size_forward</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -785,11 +785,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> init_win_bytes_backward</t>
+          <t xml:space="preserve"> protocol</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -798,11 +798,11 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> protocol</t>
+          <t xml:space="preserve"> source port</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -811,11 +811,11 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> source port</t>
+          <t xml:space="preserve"> subflow bwd packets</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -824,11 +824,11 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> subflow bwd packets</t>
+          <t xml:space="preserve"> total backward packets</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -837,11 +837,11 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> total backward packets</t>
+          <t xml:space="preserve"> total fwd packets</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -850,11 +850,11 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> total fwd packets</t>
+          <t>active mean</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -863,11 +863,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>active mean</t>
+          <t>bwd iat total</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -876,11 +876,11 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>bwd iat total</t>
+          <t>fwd iat total</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -889,11 +889,11 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>fwd iat total</t>
+          <t>fwd packets/s</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -902,11 +902,11 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>fwd packets/s</t>
+          <t>idle mean</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -915,11 +915,11 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>idle mean</t>
+          <t>init_win_bytes_forward</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -928,11 +928,11 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>init_win_bytes_forward</t>
+          <t>subflow fwd packets</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -941,11 +941,11 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>subflow fwd packets</t>
+          <t>total length of fwd packets</t>
         </is>
       </c>
       <c r="C40" t="n">

--- a/multiRFE.xlsx
+++ b/multiRFE.xlsx
@@ -447,11 +447,11 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> active max</t>
+          <t xml:space="preserve"> ack flag count</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -460,11 +460,11 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> active min</t>
+          <t xml:space="preserve"> active max</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -473,11 +473,11 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> active std</t>
+          <t xml:space="preserve"> active min</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -486,11 +486,11 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bwd header length</t>
+          <t xml:space="preserve"> active std</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -499,11 +499,11 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bwd iat max</t>
+          <t xml:space="preserve"> bwd header length</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -512,11 +512,11 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bwd iat mean</t>
+          <t xml:space="preserve"> bwd iat max</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -525,11 +525,11 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bwd iat min</t>
+          <t xml:space="preserve"> bwd iat mean</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -538,11 +538,11 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bwd iat std</t>
+          <t xml:space="preserve"> bwd iat min</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -551,11 +551,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bwd packets/s</t>
+          <t xml:space="preserve"> bwd iat std</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -564,11 +564,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> destination port</t>
+          <t xml:space="preserve"> bwd packet length std</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -577,11 +577,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow duration</t>
+          <t xml:space="preserve"> bwd packets/s</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -590,11 +590,11 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow iat max</t>
+          <t xml:space="preserve"> destination port</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -603,11 +603,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow iat mean</t>
+          <t xml:space="preserve"> flow duration</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -616,11 +616,11 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow iat min</t>
+          <t xml:space="preserve"> flow iat max</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -629,11 +629,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow iat std</t>
+          <t xml:space="preserve"> flow iat mean</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -642,11 +642,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow packets/s</t>
+          <t xml:space="preserve"> flow iat min</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -655,11 +655,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd header length</t>
+          <t xml:space="preserve"> flow iat std</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -668,11 +668,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd header length.1</t>
+          <t xml:space="preserve"> flow packets/s</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -681,11 +681,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd iat max</t>
+          <t xml:space="preserve"> fwd header length</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -694,11 +694,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd iat mean</t>
+          <t xml:space="preserve"> fwd header length.1</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -707,11 +707,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd iat min</t>
+          <t xml:space="preserve"> fwd iat max</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -720,11 +720,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd iat std</t>
+          <t xml:space="preserve"> fwd iat mean</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -733,11 +733,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> idle max</t>
+          <t xml:space="preserve"> fwd iat min</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -746,11 +746,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> idle std</t>
+          <t xml:space="preserve"> fwd iat std</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -759,11 +759,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> init_win_bytes_backward</t>
+          <t xml:space="preserve"> idle max</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -772,11 +772,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> min_seg_size_forward</t>
+          <t xml:space="preserve"> idle std</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -785,11 +785,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> protocol</t>
+          <t xml:space="preserve"> init_win_bytes_backward</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -798,11 +798,11 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> source port</t>
+          <t xml:space="preserve"> min_seg_size_forward</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -811,11 +811,11 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> subflow bwd packets</t>
+          <t xml:space="preserve"> source port</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -824,11 +824,11 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> total backward packets</t>
+          <t xml:space="preserve"> subflow bwd packets</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -841,7 +841,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> total fwd packets</t>
+          <t xml:space="preserve"> total backward packets</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -850,11 +850,11 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>active mean</t>
+          <t xml:space="preserve"> total fwd packets</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -863,11 +863,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>bwd iat total</t>
+          <t>active mean</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -876,11 +876,11 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>fwd iat total</t>
+          <t>bwd iat total</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -889,11 +889,11 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>fwd packets/s</t>
+          <t>fwd iat total</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -902,11 +902,11 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>idle mean</t>
+          <t>fwd packets/s</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -915,11 +915,11 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>init_win_bytes_forward</t>
+          <t>idle mean</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -928,11 +928,11 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>subflow fwd packets</t>
+          <t>init_win_bytes_forward</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -941,11 +941,11 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>total length of fwd packets</t>
+          <t>subflow fwd packets</t>
         </is>
       </c>
       <c r="C40" t="n">
